--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3552830.607746226</v>
+        <v>3550453.98079886</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7820598.993825575</v>
+        <v>7820598.993825574</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>48.77025313632475</v>
+        <v>39.45655134471478</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>113.7922964278911</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>62.67566713036395</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>213.0787404579723</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>15.69797938778835</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>126.6961621387663</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>23.73664243899209</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>98.71273758518163</v>
+        <v>132.9066208399089</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>110.6362210220199</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206813</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>19.91555826189061</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F16" t="n">
-        <v>113.5028334418565</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>132.6315337216688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="23">
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>26.1362719570585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>66.25628701154714</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523126</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>170.1899010721185</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
-        <v>82.47290449300773</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1926.050536840746</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1926.050536840746</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1926.050536840746</v>
+        <v>1604.395429084661</v>
       </c>
       <c r="X2" t="n">
-        <v>1926.050536840746</v>
+        <v>1230.929670823581</v>
       </c>
       <c r="Y2" t="n">
-        <v>1926.050536840746</v>
+        <v>1230.929670823581</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>815.1145481251083</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084328</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>834.938065318854</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>666.0018823909471</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>515.8852429786114</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962183</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1573.137365397362</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1573.137365397362</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1573.137365397362</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1573.137365397362</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1573.137365397362</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1283.720195360401</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>1055.730644462384</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>834.938065318854</v>
+        <v>314.9273982680232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.4584982637875</v>
+        <v>809.2519436594666</v>
       </c>
       <c r="C5" t="n">
-        <v>494.4959813233758</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="D5" t="n">
-        <v>136.2302827166252</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2013.663428564801</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2013.663428564801</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.663428564801</v>
+        <v>1959.45687396048</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.197670303721</v>
+        <v>1585.9911156994</v>
       </c>
       <c r="Y5" t="n">
-        <v>1250.058338327909</v>
+        <v>1195.851783723588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>520.4109910936368</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>815.1145481251085</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>643.8611643309006</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>643.8611643309006</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>643.8611643309006</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>495.9480707485075</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962182</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1509.886307086047</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1286.907826280783</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>997.7894887846204</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.643294372448</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X7" t="n">
-        <v>864.6537434744307</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.8611643309006</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1367.208738248819</v>
+        <v>639.4419116165409</v>
       </c>
       <c r="C8" t="n">
-        <v>998.2462213084077</v>
+        <v>270.4793946761292</v>
       </c>
       <c r="D8" t="n">
-        <v>639.9805227016573</v>
+        <v>270.4793946761292</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
         <v>129.2847819674218</v>
@@ -4799,10 +4799,10 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816086</v>
@@ -4814,40 +4814,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312941</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1753.808578312941</v>
+        <v>1026.041751680663</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>662.3527266874009</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.614745646621</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1225.480207141839</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,13 +5267,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273899</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>599.4606235519261</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.200520057987</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,22 +6306,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2389.155899672379</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2367.795837888943</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,22 +6777,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7634,37 +7634,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7725,25 +7725,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>224.335519760177</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>224.3355197601772</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039156</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>70.03064962107874</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5054897610406</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.41624546988362</v>
       </c>
       <c r="F16" t="n">
-        <v>31.91821458107479</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>154.8900140445861</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>19.50758019582666</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.39475227997627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
-        <v>84.7739166056201</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="H2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,40 +26424,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707443</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707437</v>
+        <v>6897.424496707354</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707347</v>
+        <v>6897.42449670739</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707378</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.42449670737</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707352</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707371</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707376</v>
-      </c>
       <c r="M4" t="n">
+        <v>6897.424496707374</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707363</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707386</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26528,40 +26528,40 @@
         <v>534616.137852993</v>
       </c>
       <c r="E6" t="n">
-        <v>131105.2087680954</v>
+        <v>131070.470842659</v>
       </c>
       <c r="F6" t="n">
-        <v>638590.6503926407</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="G6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="H6" t="n">
-        <v>638590.6503926408</v>
+        <v>638555.9124672048</v>
       </c>
       <c r="I6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="J6" t="n">
-        <v>470985.4725826583</v>
+        <v>470950.7346572225</v>
       </c>
       <c r="K6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="L6" t="n">
-        <v>638590.6503926408</v>
+        <v>638555.9124672053</v>
       </c>
       <c r="M6" t="n">
-        <v>505983.3566637141</v>
+        <v>505948.6187382782</v>
       </c>
       <c r="N6" t="n">
-        <v>638590.6503926407</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="O6" t="n">
-        <v>638590.6503926406</v>
+        <v>638555.9124672054</v>
       </c>
       <c r="P6" t="n">
-        <v>638590.6503926411</v>
+        <v>638555.9124672052</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000386</v>
-      </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>300.4707155810883</v>
+        <v>309.7844173726982</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>66.03968375404622</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>38.88190528920966</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>37.96650967048973</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>333.5429893296247</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>18.72488588416492</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>170.9258179227454</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>283.2176324870802</v>
+        <v>249.0237492323529</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>110.112474975192</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28330,10 +28330,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-2.740183841666113e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908132</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,16 +32078,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
-        <v>398.1179220955535</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32315,13 +32315,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32333,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.118592441407</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>536.8001439125376</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.5330199802463</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,25 +33497,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N36" t="n">
-        <v>342.490526454265</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>748.8168776781358</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,28 +34445,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0158803980272</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>410.923016003662</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000386</v>
+        <v>390.3778271117877</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>367.7110102589289</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164542</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193501</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
-        <v>259.5635423156793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>187.1368183553855</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>394.6661099905193</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.5512458942248</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36829,13 +36829,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37145,25 +37145,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>90.01966967204031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N36" t="n">
-        <v>211.1488143709317</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>617.4751655948025</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,28 +38093,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
